--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18528" windowHeight="7284"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>厂商</t>
   </si>
@@ -215,13 +215,10 @@
     <t>否</t>
   </si>
   <si>
-    <t>V10</t>
-  </si>
-  <si>
     <t>飞腾</t>
   </si>
   <si>
-    <t>ARM</t>
+    <t>arm64</t>
   </si>
   <si>
     <t>其他方式引入</t>
@@ -256,14 +253,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -287,30 +291,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,61 +358,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,47 +411,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,19 +455,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,67 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,96 +629,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -653,92 +650,83 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="true"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,32 +736,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,254 +763,325 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1177,7 +1210,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1201,9 +1234,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1227,7 +1260,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1280,7 +1313,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1305,7 +1338,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1320,139 +1353,142 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="true"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="true"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="1" customWidth="true"/>
     <col min="7" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
-    <col min="15" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="12.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" customWidth="true"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="true"/>
+    <col min="12" max="13" width="10.25" style="1" customWidth="true"/>
+    <col min="14" max="14" width="8.5" style="1" customWidth="true"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="7.875" style="2"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="19" width="7.875" style="2"/>
+    <col min="20" max="20" width="12.25" style="1" customWidth="true"/>
     <col min="21" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="14.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.75" style="1" customWidth="true"/>
     <col min="28" max="33" width="9" style="1"/>
-    <col min="34" max="34" width="13.4" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.2" style="1" customWidth="1"/>
+    <col min="34" max="34" width="13.4" style="1" customWidth="true"/>
+    <col min="35" max="35" width="16.2" style="1" customWidth="true"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.55" spans="1:35">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="41.25" spans="1:35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" ht="78" spans="1:35">
+    <row r="2" ht="78.75" spans="1:35">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1480,72 +1516,79 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="AD2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI2" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
+      <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
+      <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
+      <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
-      <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
-      <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
-      <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>厂商</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>银河麒麟桌面操作系统V10SP1</t>
   </si>
   <si>
     <t>飞腾</t>
@@ -253,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -292,14 +295,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,9 +356,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,107 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,43 +470,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,127 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,39 +730,6 @@
       </top>
       <bottom style="medium">
         <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,6 +798,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -836,148 +839,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,7 +1356,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1516,49 +1519,51 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1572,14 +1577,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
+      <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
-      <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>

--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -255,11 +255,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -295,7 +296,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,8 +386,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,121 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -458,187 +459,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +731,48 @@
       </top>
       <bottom style="medium">
         <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,30 +788,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,35 +818,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,94 +840,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -935,56 +936,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,6 +993,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1027,8 +1031,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
@@ -1355,8 +1365,8 @@
   <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG$1:AH$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1378,216 +1388,217 @@
     <col min="20" max="20" width="12.25" style="1" customWidth="true"/>
     <col min="21" max="26" width="9" style="1"/>
     <col min="27" max="27" width="14.75" style="1" customWidth="true"/>
-    <col min="28" max="33" width="9" style="1"/>
-    <col min="34" max="34" width="13.4" style="1" customWidth="true"/>
+    <col min="28" max="32" width="9" style="1"/>
+    <col min="33" max="33" width="9" style="3"/>
+    <col min="34" max="34" width="13.4" style="3" customWidth="true"/>
     <col min="35" max="35" width="16.2" style="1" customWidth="true"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41.25" spans="1:35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" ht="78.75" spans="1:35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7" t="s">
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="18" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
+      <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
       <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
-      <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2">
       <formula1>"是,否"</formula1>

--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -259,8 +259,8 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -303,7 +303,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +348,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -325,25 +372,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,6 +387,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -363,53 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -424,21 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -459,13 +459,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,169 +627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,20 +744,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,27 +789,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -818,17 +813,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,145 +840,145 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1365,8 +1365,8 @@
   <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG$1:AH$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1579,6 +1579,15 @@
     </row>
   </sheetData>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
+      <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
@@ -1588,20 +1597,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
-      <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2">
-      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>

--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>bst</author>
+    <author>kylin</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0">
@@ -85,6 +86,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>kylin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+此生态适配数据对应的生态BD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>kylin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+kylin:
+需和生态适配管理平台中的操作系统版本列表保持一致：
+银河麒麟桌面操作系统V10SP1
+银河麒麟桌面操作系统V10
+银河麒麟桌面操作系统V4
+中标麒麟桌面操作系统V7
+银河麒麟服务器操作系统V10SP1
+银河麒麟服务器操作系统V10
+银河麒麟服务器操作系统V4
+中标麒麟服务器操作系统V7
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -188,6 +243,12 @@
     <t>是否互认证</t>
   </si>
   <si>
+    <t>是否有测试报告</t>
+  </si>
+  <si>
+    <t>证书编号</t>
+  </si>
+  <si>
     <t>适配开始时间</t>
   </si>
   <si>
@@ -228,12 +289,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>已适配</t>
-  </si>
-  <si>
-    <t>适配成果数据已更新至生态网站</t>
   </si>
   <si>
     <t>CERTIFICATION</t>
@@ -255,23 +310,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -296,7 +343,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,7 +367,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,6 +394,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -332,6 +439,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -342,69 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,28 +493,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -459,192 +513,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -654,92 +708,64 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +781,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,313 +856,254 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1103,6 +1112,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>657225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16078200" y="666750"/>
+              <a:ext cx="657225" cy="657225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,7 +1278,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1247,9 +1302,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1273,7 +1328,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1326,7 +1381,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1351,7 +1406,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1363,253 +1418,284 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="true"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="true"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="8.5" style="1" customWidth="true"/>
+    <col min="5" max="6" width="8.5" style="1" customWidth="1"/>
     <col min="7" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="true"/>
-    <col min="11" max="11" width="10.125" style="1" customWidth="true"/>
-    <col min="12" max="13" width="10.25" style="1" customWidth="true"/>
-    <col min="14" max="14" width="8.5" style="1" customWidth="true"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="7.875" style="2"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="19" width="7.875" style="2"/>
-    <col min="20" max="20" width="12.25" style="1" customWidth="true"/>
+    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
+    <col min="15" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="12.25" style="1" customWidth="1"/>
     <col min="21" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="14.75" style="1" customWidth="true"/>
-    <col min="28" max="32" width="9" style="1"/>
-    <col min="33" max="33" width="9" style="3"/>
-    <col min="34" max="34" width="13.4" style="3" customWidth="true"/>
-    <col min="35" max="35" width="16.2" style="1" customWidth="true"/>
-    <col min="36" max="16384" width="9" style="1"/>
+    <col min="27" max="27" width="14.75" style="1" customWidth="1"/>
+    <col min="28" max="35" width="9" style="1"/>
+    <col min="36" max="36" width="13.4" style="1" customWidth="1"/>
+    <col min="37" max="37" width="16.2" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.25" spans="1:35">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="52.5" spans="1:37">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" ht="78.75" spans="1:35">
-      <c r="A2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+    <row r="2" ht="71.25" spans="1:37">
+      <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="U2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17" t="s">
+      <c r="AD2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AK2" s="13" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2 AG2 AH2">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
+      <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
-      <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+      <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
-      <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
+      <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1030" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>657225</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1030" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -349,6 +349,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,136 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,13 +513,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,31 +663,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,133 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,13 +759,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,11 +789,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,21 +823,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -842,17 +837,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,151 +861,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1634,29 +1634,29 @@
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
-      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2 AG2 AH2">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+      <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
-      <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>

--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzq65\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28158C94-5968-4A58-A701-3DF63A8E75EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="2130" yWindow="855" windowWidth="24450" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>bst</author>
     <author>kylin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -147,9 +153,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
-    <t>厂商</t>
-  </si>
-  <si>
     <t>软件名称</t>
   </si>
   <si>
@@ -304,19 +307,17 @@
   </si>
   <si>
     <t>如果是从生态官网导出来的数据，备注标识“从生态网站导入”</t>
+  </si>
+  <si>
+    <t>厂商名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,151 +346,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,202 +360,30 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -758,254 +443,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,106 +459,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1131,25 +530,39 @@
           <xdr:row>1</xdr:row>
           <xdr:rowOff>657225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+            <xdr:cNvPr id="1030" name="Object 6" descr="oleimage" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16078200" y="666750"/>
-              <a:ext cx="657225" cy="657225"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1412,19 +825,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
@@ -1441,240 +854,240 @@
     <col min="21" max="26" width="9" style="1"/>
     <col min="27" max="27" width="14.75" style="1" customWidth="1"/>
     <col min="28" max="35" width="9" style="1"/>
-    <col min="36" max="36" width="13.4" style="1" customWidth="1"/>
-    <col min="37" max="37" width="16.2" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="16.25" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="52.5" spans="1:37">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:37" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:37" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" ht="71.25" spans="1:37">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2 AG2 AH2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2 AG2 AH2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1030" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId3">
+          <objectPr defaultSize="0" altText="oleimage" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
@@ -1693,7 +1106,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1030" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzq65\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28158C94-5968-4A58-A701-3DF63A8E75EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="855" windowWidth="24450" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -20,13 +14,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>bst</author>
     <author>kylin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -114,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -153,6 +147,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
+    <t>厂商</t>
+  </si>
+  <si>
     <t>软件名称</t>
   </si>
   <si>
@@ -307,17 +304,19 @@
   </si>
   <si>
     <t>如果是从生态官网导出来的数据，备注标识“从生态网站导入”</t>
-  </si>
-  <si>
-    <t>厂商名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,7 +345,151 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,30 +503,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -443,12 +758,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -459,62 +1016,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -530,39 +1131,25 @@
           <xdr:row>1</xdr:row>
           <xdr:rowOff>657225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" descr="oleimage" hidden="1">
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="16078200" y="666750"/>
+              <a:ext cx="657225" cy="657225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -825,19 +1412,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
@@ -854,240 +1441,240 @@
     <col min="21" max="26" width="9" style="1"/>
     <col min="27" max="27" width="14.75" style="1" customWidth="1"/>
     <col min="28" max="35" width="9" style="1"/>
-    <col min="36" max="36" width="13.375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="16.25" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.4" style="1" customWidth="1"/>
+    <col min="37" max="37" width="16.2" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="52.5" spans="1:37">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="71.25" spans="1:37">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2 AG2 AH2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2 AG2 AH2">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
       <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
       <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId3">
-          <objectPr defaultSize="0" altText="oleimage" r:id="rId4">
+        <oleObject shapeId="1030" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
@@ -1106,7 +1693,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId3"/>
+        <oleObject shapeId="1030" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -7,8 +7,25 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="软件数据" sheetId="3" r:id="rId1"/>
+    <sheet name="软件分类" sheetId="4" r:id="rId2"/>
+    <sheet name="适配状态" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="待验证">适配状态!$D$2:$D$2</definedName>
+    <definedName name="适配暂停">适配状态!$E$2:$E$4</definedName>
+    <definedName name="适配中">适配状态!$B$2:$B$18</definedName>
+    <definedName name="未适配">适配状态!$A$2:$A$4</definedName>
+    <definedName name="已适配">适配状态!$C$2:$C$12</definedName>
+    <definedName name="日常办公">软件分类!$A$2:$A$14</definedName>
+    <definedName name="多媒体软件">软件分类!$B$2:$B$4</definedName>
+    <definedName name="基础软件">软件分类!$C$2:$C$14</definedName>
+    <definedName name="安全防护">软件分类!$D$2:$D$12</definedName>
+    <definedName name="业务软件">软件分类!$E$2:$E$12</definedName>
+    <definedName name="开发测试">软件分类!$F$2:$F$5</definedName>
+    <definedName name="存储备份">软件分类!$G$2:$G$4</definedName>
+    <definedName name="其它">软件分类!$H$2:$H$3</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -145,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="151">
   <si>
     <t>厂商</t>
   </si>
@@ -264,46 +281,340 @@
     <t>微信</t>
   </si>
   <si>
+    <t>日常办公</t>
+  </si>
+  <si>
+    <t>即时通讯</t>
+  </si>
+  <si>
+    <t>电信</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>银河麒麟桌面操作系统V10SP1</t>
+  </si>
+  <si>
+    <t>飞腾</t>
+  </si>
+  <si>
+    <t>arm64</t>
+  </si>
+  <si>
+    <t>其他方式引入</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>未适配</t>
+  </si>
+  <si>
+    <t>厂商暂无适配计划</t>
+  </si>
+  <si>
+    <t>CERTIFICATION</t>
+  </si>
+  <si>
+    <t>原生适配</t>
+  </si>
+  <si>
+    <t>厂商自测</t>
+  </si>
+  <si>
+    <t>yyyy-MM-dd</t>
+  </si>
+  <si>
+    <t>如果是从生态官网导出来的数据，备注标识“从生态网站导入”</t>
+  </si>
+  <si>
+    <t>多媒体软件</t>
+  </si>
+  <si>
     <t>基础软件</t>
   </si>
   <si>
+    <t>安全防护</t>
+  </si>
+  <si>
+    <t>业务软件</t>
+  </si>
+  <si>
+    <t>开发测试</t>
+  </si>
+  <si>
+    <t>存储备份</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>音视频</t>
+  </si>
+  <si>
     <t>数据库</t>
   </si>
   <si>
-    <t>电信</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>银河麒麟桌面操作系统V10SP1</t>
-  </si>
-  <si>
-    <t>飞腾</t>
-  </si>
-  <si>
-    <t>arm64</t>
-  </si>
-  <si>
-    <t>其他方式引入</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>CERTIFICATION</t>
-  </si>
-  <si>
-    <t>原生适配</t>
-  </si>
-  <si>
-    <t>厂商自测</t>
-  </si>
-  <si>
-    <t>yyyy-MM-dd</t>
-  </si>
-  <si>
-    <t>如果是从生态官网导出来的数据，备注标识“从生态网站导入”</t>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>财务软件</t>
+  </si>
+  <si>
+    <t>备份恢复</t>
+  </si>
+  <si>
+    <t>驱动</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>图形图像</t>
+  </si>
+  <si>
+    <t>中间件</t>
+  </si>
+  <si>
+    <t>杀毒软件</t>
+  </si>
+  <si>
+    <t>运维管理</t>
+  </si>
+  <si>
+    <t>设计仿真</t>
+  </si>
+  <si>
+    <t>存储软件</t>
+  </si>
+  <si>
+    <t>流式版式软件</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>虚拟化</t>
+  </si>
+  <si>
+    <t>入侵检测</t>
+  </si>
+  <si>
+    <t>业务管理系统</t>
+  </si>
+  <si>
+    <t>编译器&amp;工具链</t>
+  </si>
+  <si>
+    <t>签章软件</t>
+  </si>
+  <si>
+    <t>大数据</t>
+  </si>
+  <si>
+    <t>终端安全管理</t>
+  </si>
+  <si>
+    <t>监控软件(HMI/SCADA)</t>
+  </si>
+  <si>
+    <t>视频会议</t>
+  </si>
+  <si>
+    <t>云桌面</t>
+  </si>
+  <si>
+    <t>身份认证</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>输入法</t>
+  </si>
+  <si>
+    <t>云平台</t>
+  </si>
+  <si>
+    <t>网络接入</t>
+  </si>
+  <si>
+    <t>电子商务</t>
+  </si>
+  <si>
+    <t>协同办公</t>
+  </si>
+  <si>
+    <t>区块链</t>
+  </si>
+  <si>
+    <t>威胁预警</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>压缩软件</t>
+  </si>
+  <si>
+    <t>分布式存储</t>
+  </si>
+  <si>
+    <t>态势感知</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>邮件系统</t>
+  </si>
+  <si>
+    <t>高可用</t>
+  </si>
+  <si>
+    <t>审计</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>云盘</t>
+  </si>
+  <si>
+    <t>负载均衡</t>
+  </si>
+  <si>
+    <t>隔离交换</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>高性能计算</t>
+  </si>
+  <si>
+    <t>适配中</t>
+  </si>
+  <si>
+    <t>已适配</t>
+  </si>
+  <si>
+    <t>待验证</t>
+  </si>
+  <si>
+    <t>适配暂停</t>
+  </si>
+  <si>
+    <t>云平台资源准备中</t>
+  </si>
+  <si>
+    <t>互认证证书制作中</t>
+  </si>
+  <si>
+    <t>麒麟自研适配方案，待内部验证</t>
+  </si>
+  <si>
+    <t>麒麟原因</t>
+  </si>
+  <si>
+    <t>待与厂商沟通</t>
+  </si>
+  <si>
+    <t>适配方案开发中</t>
+  </si>
+  <si>
+    <t>证书邮寄中（后期）</t>
+  </si>
+  <si>
+    <t>厂商原因</t>
+  </si>
+  <si>
+    <t>与厂商正在沟通</t>
+  </si>
+  <si>
+    <t>厂商安排测试环境中</t>
+  </si>
+  <si>
+    <t>证书归档中（后期）</t>
+  </si>
+  <si>
+    <t>其他原因</t>
+  </si>
+  <si>
+    <t>测试相关设备借收货中</t>
+  </si>
+  <si>
+    <t>证书已归档</t>
+  </si>
+  <si>
+    <t>厂商适配申请准备中</t>
+  </si>
+  <si>
+    <t>测试报告已上传至生态网站</t>
+  </si>
+  <si>
+    <t>适配申请生态审核中</t>
+  </si>
+  <si>
+    <t>适配成果数据已更新至生态网站</t>
+  </si>
+  <si>
+    <t>适配测试中—远程测试</t>
+  </si>
+  <si>
+    <t>适配成果已上架至软件商店</t>
+  </si>
+  <si>
+    <t>适配测试中—出差测试</t>
+  </si>
+  <si>
+    <t>麒麟自研适配方案，内部已验证通过</t>
+  </si>
+  <si>
+    <t>适配测试中—视频复测</t>
+  </si>
+  <si>
+    <t>适配成果已提交上架软件商店</t>
+  </si>
+  <si>
+    <t>适配测试中—麒麟内测</t>
+  </si>
+  <si>
+    <t>排期待适配测试</t>
+  </si>
+  <si>
+    <t>适配问题定位分析中</t>
+  </si>
+  <si>
+    <t>适配成果已下架软件商店</t>
+  </si>
+  <si>
+    <t>问题修复中—厂商问题</t>
+  </si>
+  <si>
+    <t>问题修复中—系统问题</t>
+  </si>
+  <si>
+    <t>问题修复中—其他问题</t>
+  </si>
+  <si>
+    <t>问题复测中</t>
+  </si>
+  <si>
+    <t>测试报告确认中</t>
+  </si>
+  <si>
+    <t>适配成果已提交下架软件商店</t>
   </si>
 </sst>
 </file>
@@ -311,12 +622,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,6 +636,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -337,6 +667,18 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -350,16 +692,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,35 +728,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -432,14 +760,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -463,13 +783,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -480,7 +793,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,9 +806,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -503,6 +833,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -513,187 +848,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,21 +1124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -837,13 +1157,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,197 +1180,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1120,16 +1472,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>657225</xdr:rowOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1144,7 +1496,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16078200" y="666750"/>
+              <a:off x="17764125" y="1885950"/>
               <a:ext cx="657225" cy="657225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1420,222 +1772,238 @@
   <sheetPr/>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
-    <col min="15" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="12.25" style="1" customWidth="1"/>
-    <col min="21" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="14.75" style="1" customWidth="1"/>
-    <col min="28" max="35" width="9" style="1"/>
-    <col min="36" max="36" width="13.4" style="1" customWidth="1"/>
-    <col min="37" max="37" width="16.2" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="6" width="8.5" style="5" customWidth="1"/>
+    <col min="7" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="13.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="5" customWidth="1"/>
+    <col min="12" max="13" width="10.25" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="5" customWidth="1"/>
+    <col min="15" max="19" width="9" style="5"/>
+    <col min="20" max="20" width="12.25" style="5" customWidth="1"/>
+    <col min="21" max="26" width="9" style="5"/>
+    <col min="27" max="27" width="14.75" style="5" customWidth="1"/>
+    <col min="28" max="35" width="9" style="5"/>
+    <col min="36" max="36" width="13.4" style="5" customWidth="1"/>
+    <col min="37" max="37" width="16.2" style="5" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="52.5" spans="1:37">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" ht="71.25" spans="1:37">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="V2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="W2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AB2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>52</v>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+      <formula1>适配状态!$A$1:$E$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>软件分类!$A$1:$E$1</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 W2">
+      <formula1>INDIRECT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
@@ -1645,12 +2013,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
-      <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
       <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
@@ -1663,6 +2025,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试,第三方测试,项目测试"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V38">
+      <formula1>软件分类!$A$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,16 +2042,16 @@
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>657225</xdr:rowOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1698,4 +2063,545 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="F6EA" sheet="1" objects="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="F6EA" sheet="1" objects="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/public/template/s_import.xlsx
+++ b/public/template/s_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="软件数据" sheetId="3" r:id="rId1"/>
@@ -518,87 +518,90 @@
     <t>云平台资源准备中</t>
   </si>
   <si>
+    <t>适配成果已提交上架软件商店</t>
+  </si>
+  <si>
+    <t>麒麟自研适配方案，待内部验证</t>
+  </si>
+  <si>
+    <t>麒麟原因</t>
+  </si>
+  <si>
+    <t>待与厂商沟通</t>
+  </si>
+  <si>
+    <t>适配方案开发中</t>
+  </si>
+  <si>
+    <t>适配成果已上架至软件商店</t>
+  </si>
+  <si>
+    <t>厂商原因</t>
+  </si>
+  <si>
+    <t>与厂商正在沟通</t>
+  </si>
+  <si>
+    <t>厂商安排测试环境中</t>
+  </si>
+  <si>
     <t>互认证证书制作中</t>
   </si>
   <si>
-    <t>麒麟自研适配方案，待内部验证</t>
-  </si>
-  <si>
-    <t>麒麟原因</t>
-  </si>
-  <si>
-    <t>待与厂商沟通</t>
-  </si>
-  <si>
-    <t>适配方案开发中</t>
+    <t>其他原因</t>
+  </si>
+  <si>
+    <t>测试相关设备借收货中</t>
   </si>
   <si>
     <t>证书邮寄中（后期）</t>
   </si>
   <si>
-    <t>厂商原因</t>
-  </si>
-  <si>
-    <t>与厂商正在沟通</t>
-  </si>
-  <si>
-    <t>厂商安排测试环境中</t>
+    <t>厂商适配申请准备中</t>
   </si>
   <si>
     <t>证书归档中（后期）</t>
   </si>
   <si>
-    <t>其他原因</t>
-  </si>
-  <si>
-    <t>测试相关设备借收货中</t>
+    <t>适配申请生态审核中</t>
   </si>
   <si>
     <t>证书已归档</t>
   </si>
   <si>
-    <t>厂商适配申请准备中</t>
+    <t>排期待适配测试</t>
+  </si>
+  <si>
+    <t>麒麟自研适配方案，内部已验证通过</t>
+  </si>
+  <si>
+    <t>适配测试中—远程测试</t>
+  </si>
+  <si>
+    <t>适配成果已提交下架软件商店</t>
+  </si>
+  <si>
+    <t>适配测试中—出差测试</t>
+  </si>
+  <si>
+    <t>适配成果已下架软件商店</t>
+  </si>
+  <si>
+    <t>适配测试中—视频复测</t>
   </si>
   <si>
     <t>测试报告已上传至生态网站</t>
   </si>
   <si>
-    <t>适配申请生态审核中</t>
+    <t>适配测试中—麒麟内测</t>
   </si>
   <si>
     <t>适配成果数据已更新至生态网站</t>
   </si>
   <si>
-    <t>适配测试中—远程测试</t>
-  </si>
-  <si>
-    <t>适配成果已上架至软件商店</t>
-  </si>
-  <si>
-    <t>适配测试中—出差测试</t>
-  </si>
-  <si>
-    <t>麒麟自研适配方案，内部已验证通过</t>
-  </si>
-  <si>
-    <t>适配测试中—视频复测</t>
-  </si>
-  <si>
-    <t>适配成果已提交上架软件商店</t>
-  </si>
-  <si>
-    <t>适配测试中—麒麟内测</t>
-  </si>
-  <si>
-    <t>排期待适配测试</t>
-  </si>
-  <si>
     <t>适配问题定位分析中</t>
   </si>
   <si>
-    <t>适配成果已下架软件商店</t>
-  </si>
-  <si>
     <t>问题修复中—厂商问题</t>
   </si>
   <si>
@@ -612,9 +615,6 @@
   </si>
   <si>
     <t>测试报告确认中</t>
-  </si>
-  <si>
-    <t>适配成果已提交下架软件商店</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1772,7 @@
   <sheetPr/>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1990,8 +1990,11 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
       <formula1>适配状态!$A$1:$E$1</formula1>
@@ -1999,23 +2002,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>软件分类!$A$1:$E$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2 AG2 AH2">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 W2">
       <formula1>INDIRECT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 U2 AD2:AF2 AG2 AH2">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
-      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
       <formula1>"READY,CERTIFICATION,VALIDATION,PROJECT"</formula1>
@@ -2070,8 +2070,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2373,7 +2373,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2543,7 +2543,7 @@
       <c r="B13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
